--- a/financial_management/Ex. 4 - Template.xlsx
+++ b/financial_management/Ex. 4 - Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\feup\4ano\2semestre\feup-gee\financial_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaog\OneDrive\Desktop\FEUP\4ano\2semestre\gee\financial_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354BDD65-502B-4AD6-960A-44A25CF734DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A71464-098C-43DC-9762-953B357B7F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>PMR</t>
   </si>
@@ -144,7 +144,19 @@
     <t xml:space="preserve">We don't know the sales of the previous month </t>
   </si>
   <si>
-    <t>?</t>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>We now changed the Income Statement and Cash Flow to the month, instead of the beginning of the month</t>
   </si>
 </sst>
 </file>
@@ -605,28 +617,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
@@ -634,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -645,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -659,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -667,7 +679,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -675,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -683,7 +695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
@@ -697,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -714,7 +726,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -728,7 +740,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -745,7 +757,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -762,7 +774,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -779,7 +791,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -796,182 +808,170 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
-        <v>40544</v>
-      </c>
-      <c r="C21" s="3">
-        <v>40575</v>
-      </c>
-      <c r="D21" s="3">
-        <v>40603</v>
-      </c>
-      <c r="E21" s="3">
-        <v>40634</v>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="6">
-        <f xml:space="preserve"> 1500 *B5</f>
-        <v>15000</v>
-      </c>
-      <c r="C22" s="6">
         <f>B5*B11</f>
         <v>20000</v>
       </c>
-      <c r="D22" s="6">
+      <c r="C22" s="6">
         <f>B5*C11</f>
         <v>25000</v>
       </c>
-      <c r="E22" s="6">
+      <c r="D22" s="6">
         <f>B5*D11</f>
         <v>30000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <f xml:space="preserve"> 1500*B6</f>
-        <v>11250</v>
-      </c>
-      <c r="C23" s="6">
         <f>B11*B6</f>
         <v>15000</v>
       </c>
-      <c r="D23" s="6">
+      <c r="C23" s="6">
         <f>C11*B6</f>
         <v>18750</v>
       </c>
-      <c r="E23" s="6">
+      <c r="D23" s="6">
         <f>D11*B6</f>
         <v>22500</v>
       </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="6">
         <f>B22-B23</f>
-        <v>3750</v>
+        <v>5000</v>
       </c>
       <c r="C24" s="6">
-        <f>C22-C23</f>
-        <v>5000</v>
+        <f t="shared" ref="C24:D24" si="0">C22-C23</f>
+        <v>6250</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" ref="D24:E24" si="0">D22-D23</f>
-        <v>6250</v>
-      </c>
-      <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
+      <c r="E24" s="6"/>
       <c r="F24">
-        <f>C24+D24+E24</f>
+        <f>B24+C24+D24</f>
         <v>18750</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
-        <v>40544</v>
-      </c>
-      <c r="C27" s="3">
-        <v>40575</v>
-      </c>
-      <c r="D27" s="3">
-        <v>40603</v>
-      </c>
-      <c r="E27" s="3">
-        <v>40634</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
+      <c r="B28">
         <v>15000</v>
       </c>
+      <c r="C28" s="6">
+        <v>20000</v>
+      </c>
       <c r="D28" s="6">
-        <v>20000</v>
-      </c>
-      <c r="E28" s="6">
         <v>25000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>35</v>
+      <c r="B29" s="6">
+        <v>18750</v>
       </c>
       <c r="C29" s="6">
-        <v>18750</v>
-      </c>
-      <c r="D29" s="6">
         <f>3000*7.5</f>
         <v>22500</v>
       </c>
-      <c r="E29" s="6">
+      <c r="D29" s="6">
         <f>3500 *B6</f>
         <v>26250</v>
       </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>35</v>
+      <c r="B30" s="6">
+        <f>B28-B29</f>
+        <v>-3750</v>
       </c>
       <c r="C30" s="6">
         <f>C28-C29</f>
-        <v>-3750</v>
+        <v>-2500</v>
       </c>
       <c r="D30" s="6">
-        <f>D28-D29</f>
-        <v>-2500</v>
-      </c>
-      <c r="E30" s="6">
-        <f xml:space="preserve"> E28-E29</f>
+        <f xml:space="preserve"> D28-D29</f>
         <v>-1250</v>
       </c>
+      <c r="E30" s="6"/>
       <c r="F30">
-        <f>C30+D30+E30</f>
+        <f>B30+C30+D30</f>
         <v>-7500</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>32</v>
       </c>
@@ -980,7 +980,7 @@
         <v>18750</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>34</v>
       </c>
@@ -1003,7 +1003,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
